--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha3F-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha3F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -952,7 +952,7 @@
         <v>0.9923393866502159</v>
       </c>
       <c r="D13">
-        <v>0.9924990944342345</v>
+        <v>0.9924990944342341</v>
       </c>
       <c r="E13">
         <v>0.9922505098929241</v>
@@ -970,10 +970,10 @@
         <v>0.9928189273290116</v>
       </c>
       <c r="J13">
-        <v>0.9924990944342345</v>
+        <v>0.9924990944342341</v>
       </c>
       <c r="K13">
-        <v>0.9923748021635792</v>
+        <v>0.9923748021635791</v>
       </c>
       <c r="L13">
         <v>0.9923570944068976</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9924424303580643</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.995896977005419</v>
+      </c>
+      <c r="D16">
+        <v>0.9884528854690178</v>
+      </c>
+      <c r="E16">
+        <v>0.9946551405311592</v>
+      </c>
+      <c r="F16">
+        <v>0.995896977005419</v>
+      </c>
+      <c r="G16">
+        <v>0.9812925782960419</v>
+      </c>
+      <c r="H16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="I16">
+        <v>0.9906682252443847</v>
+      </c>
+      <c r="J16">
+        <v>0.9884528854690178</v>
+      </c>
+      <c r="K16">
+        <v>0.9915540130000885</v>
+      </c>
+      <c r="L16">
+        <v>0.9937254950027536</v>
+      </c>
+      <c r="M16">
+        <v>0.9905568543703205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.995896977005419</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
@@ -955,7 +955,7 @@
         <v>0.9923393866502159</v>
       </c>
       <c r="D13">
-        <v>0.9924990944342341</v>
+        <v>0.9924990944342345</v>
       </c>
       <c r="E13">
         <v>0.9922505098929241</v>
@@ -973,10 +973,10 @@
         <v>0.9928189273290116</v>
       </c>
       <c r="J13">
-        <v>0.9924990944342341</v>
+        <v>0.9924990944342345</v>
       </c>
       <c r="K13">
-        <v>0.9923748021635791</v>
+        <v>0.9923748021635792</v>
       </c>
       <c r="L13">
         <v>0.9923570944068976</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha3F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9991759999999993</v>
+        <v>0.995896977005419</v>
       </c>
       <c r="D10">
-        <v>0.9760199999999979</v>
+        <v>0.9884528854690178</v>
       </c>
       <c r="E10">
-        <v>0.9991759999999991</v>
+        <v>0.9946551405311592</v>
       </c>
       <c r="F10">
-        <v>0.9991759999999993</v>
+        <v>0.995896977005419</v>
       </c>
       <c r="G10">
-        <v>0.9797720000000018</v>
+        <v>0.9812925782960419</v>
       </c>
       <c r="H10">
-        <v>0.9918840000000002</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="I10">
-        <v>0.9947960000000008</v>
+        <v>0.9906682252443847</v>
       </c>
       <c r="J10">
-        <v>0.9760199999999979</v>
+        <v>0.9884528854690178</v>
       </c>
       <c r="K10">
-        <v>0.9875979999999984</v>
+        <v>0.9915540130000885</v>
       </c>
       <c r="L10">
-        <v>0.9933869999999989</v>
+        <v>0.9937254950027536</v>
       </c>
       <c r="M10">
-        <v>0.9901373333333332</v>
+        <v>0.9905568543703205</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.01</v>
+        <v>0.9916944355013595</v>
       </c>
       <c r="D11">
-        <v>0.9438874999999985</v>
+        <v>0.9771689459665518</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.9960292800793002</v>
       </c>
       <c r="F11">
-        <v>1.01</v>
+        <v>0.9916944355013595</v>
       </c>
       <c r="G11">
-        <v>0.96</v>
+        <v>0.9825779207749094</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>1.007243282868975</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.99568469706686</v>
       </c>
       <c r="J11">
-        <v>0.9438874999999985</v>
+        <v>0.9771689459665518</v>
       </c>
       <c r="K11">
-        <v>0.9769437499999993</v>
+        <v>0.986599113022926</v>
       </c>
       <c r="L11">
-        <v>0.9934718749999996</v>
+        <v>0.9891467742621427</v>
       </c>
       <c r="M11">
-        <v>0.9873145833333331</v>
+        <v>0.9917330937096592</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002721036083202</v>
+        <v>0.9916599013470611</v>
       </c>
       <c r="D12">
-        <v>0.963919763251197</v>
+        <v>0.977385247141883</v>
       </c>
       <c r="E12">
-        <v>1.002259147571201</v>
+        <v>0.9959866672158417</v>
       </c>
       <c r="F12">
-        <v>1.002721036083202</v>
+        <v>0.9916599013470611</v>
       </c>
       <c r="G12">
-        <v>0.9737184090111993</v>
+        <v>0.9828133310953702</v>
       </c>
       <c r="H12">
-        <v>0.9974377936895994</v>
+        <v>1.007036198226405</v>
       </c>
       <c r="I12">
-        <v>0.9972639737856008</v>
+        <v>0.99568617313607</v>
       </c>
       <c r="J12">
-        <v>0.963919763251197</v>
+        <v>0.977385247141883</v>
       </c>
       <c r="K12">
-        <v>0.9830894554111989</v>
+        <v>0.9866859571788624</v>
       </c>
       <c r="L12">
-        <v>0.9929052457472004</v>
+        <v>0.9891729292629619</v>
       </c>
       <c r="M12">
-        <v>0.9895533538986666</v>
+        <v>0.991761253027105</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9923393866502159</v>
+        <v>0.9916753340548542</v>
       </c>
       <c r="D13">
-        <v>0.9924990944342345</v>
+        <v>0.9771968529857997</v>
       </c>
       <c r="E13">
-        <v>0.9922505098929241</v>
+        <v>0.99598943056112</v>
       </c>
       <c r="F13">
-        <v>0.9923393866502159</v>
+        <v>0.9916753340548542</v>
       </c>
       <c r="G13">
-        <v>0.9917670330760217</v>
+        <v>0.9826423952537202</v>
       </c>
       <c r="H13">
-        <v>0.9924019427447981</v>
+        <v>1.007239599176238</v>
       </c>
       <c r="I13">
-        <v>0.9928189273290116</v>
+        <v>0.9956982663745929</v>
       </c>
       <c r="J13">
-        <v>0.9924990944342345</v>
+        <v>0.9771968529857997</v>
       </c>
       <c r="K13">
-        <v>0.9923748021635792</v>
+        <v>0.9865931417734599</v>
       </c>
       <c r="L13">
-        <v>0.9923570944068976</v>
+        <v>0.989134237914157</v>
       </c>
       <c r="M13">
-        <v>0.992346149021201</v>
+        <v>0.9917403130677207</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9922571351621359</v>
+        <v>0.9991759999999993</v>
       </c>
       <c r="D14">
-        <v>0.9940479545672992</v>
+        <v>0.9760199999999979</v>
       </c>
       <c r="E14">
-        <v>0.9922574907241658</v>
+        <v>0.9991759999999991</v>
       </c>
       <c r="F14">
-        <v>0.9922571351621359</v>
+        <v>0.9991759999999993</v>
       </c>
       <c r="G14">
-        <v>0.9925161283939087</v>
+        <v>0.9797720000000018</v>
       </c>
       <c r="H14">
-        <v>0.9900025626663325</v>
+        <v>0.9918840000000002</v>
       </c>
       <c r="I14">
-        <v>0.9925469071083745</v>
+        <v>0.9947960000000008</v>
       </c>
       <c r="J14">
-        <v>0.9940479545672992</v>
+        <v>0.9760199999999979</v>
       </c>
       <c r="K14">
-        <v>0.9931527226457325</v>
+        <v>0.9875979999999984</v>
       </c>
       <c r="L14">
-        <v>0.9927049289039342</v>
+        <v>0.9933869999999989</v>
       </c>
       <c r="M14">
-        <v>0.9922713631037027</v>
+        <v>0.9901373333333332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.991251694699639</v>
+        <v>1.01</v>
       </c>
       <c r="D15">
-        <v>0.9972290896117837</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="E15">
-        <v>0.9910574353791483</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.991251694699639</v>
+        <v>1.01</v>
       </c>
       <c r="G15">
-        <v>0.995299557398898</v>
+        <v>0.96</v>
       </c>
       <c r="H15">
-        <v>0.9882809289270912</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9915358761318263</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9972290896117837</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="K15">
-        <v>0.994143262495466</v>
+        <v>0.9769437499999993</v>
       </c>
       <c r="L15">
-        <v>0.9926974785975524</v>
+        <v>0.9934718749999996</v>
       </c>
       <c r="M15">
-        <v>0.9924424303580643</v>
+        <v>0.9873145833333331</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.995896977005419</v>
+        <v>1.002721036083202</v>
       </c>
       <c r="D16">
-        <v>0.9884528854690178</v>
+        <v>0.963919763251197</v>
       </c>
       <c r="E16">
-        <v>0.9946551405311592</v>
+        <v>1.002259147571201</v>
       </c>
       <c r="F16">
-        <v>0.995896977005419</v>
+        <v>1.002721036083202</v>
       </c>
       <c r="G16">
-        <v>0.9812925782960419</v>
+        <v>0.9737184090111993</v>
       </c>
       <c r="H16">
-        <v>0.9923753196759012</v>
+        <v>0.9974377936895994</v>
       </c>
       <c r="I16">
-        <v>0.9906682252443847</v>
+        <v>0.9972639737856008</v>
       </c>
       <c r="J16">
-        <v>0.9884528854690178</v>
+        <v>0.963919763251197</v>
       </c>
       <c r="K16">
-        <v>0.9915540130000885</v>
+        <v>0.9830894554111989</v>
       </c>
       <c r="L16">
-        <v>0.9937254950027536</v>
+        <v>0.9929052457472004</v>
       </c>
       <c r="M16">
-        <v>0.9905568543703205</v>
+        <v>0.9895533538986666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9923393866502159</v>
+      </c>
+      <c r="D17">
+        <v>0.9924990944342341</v>
+      </c>
+      <c r="E17">
+        <v>0.9922505098929241</v>
+      </c>
+      <c r="F17">
+        <v>0.9923393866502159</v>
+      </c>
+      <c r="G17">
+        <v>0.9917670330760217</v>
+      </c>
+      <c r="H17">
+        <v>0.9924019427447981</v>
+      </c>
+      <c r="I17">
+        <v>0.9928189273290116</v>
+      </c>
+      <c r="J17">
+        <v>0.9924990944342341</v>
+      </c>
+      <c r="K17">
+        <v>0.9923748021635791</v>
+      </c>
+      <c r="L17">
+        <v>0.9923570944068976</v>
+      </c>
+      <c r="M17">
+        <v>0.992346149021201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9922571351621359</v>
+      </c>
+      <c r="D18">
+        <v>0.9940479545672992</v>
+      </c>
+      <c r="E18">
+        <v>0.9922574907241658</v>
+      </c>
+      <c r="F18">
+        <v>0.9922571351621359</v>
+      </c>
+      <c r="G18">
+        <v>0.9925161283939087</v>
+      </c>
+      <c r="H18">
+        <v>0.9900025626663325</v>
+      </c>
+      <c r="I18">
+        <v>0.9925469071083745</v>
+      </c>
+      <c r="J18">
+        <v>0.9940479545672992</v>
+      </c>
+      <c r="K18">
+        <v>0.9931527226457325</v>
+      </c>
+      <c r="L18">
+        <v>0.9927049289039342</v>
+      </c>
+      <c r="M18">
+        <v>0.9922713631037027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.991251694699639</v>
+      </c>
+      <c r="D19">
+        <v>0.9972290896117837</v>
+      </c>
+      <c r="E19">
+        <v>0.9910574353791483</v>
+      </c>
+      <c r="F19">
+        <v>0.991251694699639</v>
+      </c>
+      <c r="G19">
+        <v>0.995299557398898</v>
+      </c>
+      <c r="H19">
+        <v>0.9882809289270912</v>
+      </c>
+      <c r="I19">
+        <v>0.9915358761318263</v>
+      </c>
+      <c r="J19">
+        <v>0.9972290896117837</v>
+      </c>
+      <c r="K19">
+        <v>0.994143262495466</v>
+      </c>
+      <c r="L19">
+        <v>0.9926974785975524</v>
+      </c>
+      <c r="M19">
+        <v>0.9924424303580643</v>
       </c>
     </row>
   </sheetData>
